--- a/database/us_hcr_database.xlsx
+++ b/database/us_hcr_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/us_fmps/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B48505-54C2-2849-AC5B-9E03CDFF386F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0EDFD1-7DAA-2A4D-9C85-6D451E67A7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="500" windowWidth="46840" windowHeight="25540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="1540" windowWidth="46840" windowHeight="25540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hcr_stock_db" sheetId="1" r:id="rId1"/>
@@ -4065,9 +4065,9 @@
   <dimension ref="A1:Q508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9603,6 +9603,12 @@
       <c r="N120" s="2">
         <v>0.79007469734695701</v>
       </c>
+      <c r="O120" s="2">
+        <v>1</v>
+      </c>
+      <c r="P120" s="2">
+        <v>0.9</v>
+      </c>
       <c r="Q120" s="2">
         <v>2023</v>
       </c>
@@ -9644,6 +9650,12 @@
       <c r="L121" s="2">
         <v>0</v>
       </c>
+      <c r="M121" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O121" s="2">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
@@ -9682,8 +9694,14 @@
       <c r="L122" s="2">
         <v>0</v>
       </c>
+      <c r="M122" s="2">
+        <v>0.25</v>
+      </c>
       <c r="N122" s="2">
         <v>0.51114450288004099</v>
+      </c>
+      <c r="O122" s="2">
+        <v>0.95</v>
       </c>
       <c r="Q122" s="2">
         <v>2023</v>
@@ -9726,6 +9744,12 @@
       <c r="L123" s="2">
         <v>0</v>
       </c>
+      <c r="M123" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O123" s="2">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
@@ -9764,6 +9788,12 @@
       <c r="L124" s="2">
         <v>0</v>
       </c>
+      <c r="M124" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O124" s="2">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
@@ -9802,8 +9832,14 @@
       <c r="L125" s="2">
         <v>0</v>
       </c>
+      <c r="M125" s="2">
+        <v>0.25</v>
+      </c>
       <c r="N125" s="2">
         <v>0.56804323725055506</v>
+      </c>
+      <c r="O125" s="2">
+        <v>0.95</v>
       </c>
       <c r="Q125" s="2">
         <v>2023</v>
@@ -9849,6 +9885,9 @@
       <c r="O126" s="2">
         <v>1</v>
       </c>
+      <c r="P126" s="2">
+        <v>0.97</v>
+      </c>
       <c r="Q126" s="2">
         <v>2022</v>
       </c>
@@ -9893,6 +9932,9 @@
       <c r="O127" s="2">
         <v>1</v>
       </c>
+      <c r="P127" s="2">
+        <v>0.97</v>
+      </c>
       <c r="Q127" s="2">
         <v>2022</v>
       </c>
@@ -12750,6 +12792,9 @@
       </c>
       <c r="L191" s="2">
         <v>0</v>
+      </c>
+      <c r="N191" s="2">
+        <v>0.75</v>
       </c>
       <c r="Q191" s="2">
         <v>2023</v>
